--- a/spec/timing_transmission.xlsx
+++ b/spec/timing_transmission.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
